--- a/wash_P/CMR.xlsx
+++ b/wash_P/CMR.xlsx
@@ -52859,7 +52859,7 @@
         <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -55951,7 +55951,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -55987,7 +55987,7 @@
         <v>0</v>
       </c>
       <c r="CV18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -68622,7 +68622,7 @@
         <v>0</v>
       </c>
       <c r="EK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL22" t="n">
         <v>0</v>
@@ -68634,7 +68634,7 @@
         <v>0</v>
       </c>
       <c r="EO22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP22" t="n">
         <v>0</v>
@@ -87207,7 +87207,7 @@
         <v>0</v>
       </c>
       <c r="CB28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC28" t="n">
         <v>0</v>
@@ -87495,7 +87495,7 @@
         <v>0</v>
       </c>
       <c r="FT28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FU28" t="n">
         <v>0</v>
